--- a/CM_APPLICATIONS/App_Data/uploads/noom.bimmer/TENSILE_REPORT_2019_341B (1).xlsx
+++ b/CM_APPLICATIONS/App_Data/uploads/noom.bimmer/TENSILE_REPORT_2019_341B (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\noom.bimmer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65193B-06F4-494D-BA66-E22FB16CE90C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3071E77-B222-426D-9667-4E54D671A771}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Static strength</t>
   </si>
@@ -79,57 +79,6 @@
     <t>Lot.</t>
   </si>
   <si>
-    <t>19.90 kN</t>
-  </si>
-  <si>
-    <t>18.83 kN</t>
-  </si>
-  <si>
-    <t>18.36 kN</t>
-  </si>
-  <si>
-    <t>18.97 kN</t>
-  </si>
-  <si>
-    <t>19.43 kN</t>
-  </si>
-  <si>
-    <t>16.73 kN</t>
-  </si>
-  <si>
-    <t>20.00 kN</t>
-  </si>
-  <si>
-    <t>17.61 kN</t>
-  </si>
-  <si>
-    <t>20.33 kN</t>
-  </si>
-  <si>
-    <t>18.70 kN</t>
-  </si>
-  <si>
-    <t>22.00 kN</t>
-  </si>
-  <si>
-    <t>16.22 kN</t>
-  </si>
-  <si>
-    <t>24.32 kN</t>
-  </si>
-  <si>
-    <t>17.88 kN</t>
-  </si>
-  <si>
-    <t>9X30</t>
-  </si>
-  <si>
-    <t>9Y19</t>
-  </si>
-  <si>
-    <t>9Z25</t>
-  </si>
-  <si>
     <t>Part No.</t>
   </si>
   <si>
@@ -139,57 +88,6 @@
     <t>W.O.S. : Full</t>
   </si>
   <si>
-    <t>20.71 kN</t>
-  </si>
-  <si>
-    <t>17.70 kN</t>
-  </si>
-  <si>
-    <t>20.79 kN</t>
-  </si>
-  <si>
-    <t>20.48 kN</t>
-  </si>
-  <si>
-    <t>18.46 kN</t>
-  </si>
-  <si>
-    <t>16.11 kN</t>
-  </si>
-  <si>
-    <t>18.66 kN</t>
-  </si>
-  <si>
-    <t>16.33 kN</t>
-  </si>
-  <si>
-    <t>22.14 kN</t>
-  </si>
-  <si>
-    <t>21.88 kN</t>
-  </si>
-  <si>
-    <t>20.50 kN</t>
-  </si>
-  <si>
-    <t>18.17 kN</t>
-  </si>
-  <si>
-    <t>19.45 kN</t>
-  </si>
-  <si>
-    <t>17.71 kN</t>
-  </si>
-  <si>
-    <t>9X24</t>
-  </si>
-  <si>
-    <t>9Y27</t>
-  </si>
-  <si>
-    <t>9Z15</t>
-  </si>
-  <si>
     <t>Buckle assy 1pcs / month</t>
   </si>
   <si>
@@ -199,30 +97,6 @@
     <t>≥9.8kN (Webbing buckle) or ≥14.7kN (Steel buckle)</t>
   </si>
   <si>
-    <t>0.00 kN</t>
-  </si>
-  <si>
-    <t>26.44 kN</t>
-  </si>
-  <si>
-    <t>26.63 kN</t>
-  </si>
-  <si>
-    <t>26.84 kN</t>
-  </si>
-  <si>
-    <t>26.21 kN</t>
-  </si>
-  <si>
-    <t>25.55 kN</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>9Y25</t>
-  </si>
-  <si>
     <t>Anchor sewing 1pcs / month</t>
   </si>
   <si>
@@ -230,45 +104,6 @@
   </si>
   <si>
     <t>≥14.7kN (Webbing sewing with anchor plate)</t>
-  </si>
-  <si>
-    <t>21.02 kN</t>
-  </si>
-  <si>
-    <t>20.39 kN</t>
-  </si>
-  <si>
-    <t>20.93 kN</t>
-  </si>
-  <si>
-    <t>19.25 kN</t>
-  </si>
-  <si>
-    <t>18.32 kN</t>
-  </si>
-  <si>
-    <t>18.56 kN</t>
-  </si>
-  <si>
-    <t>21.16 kN</t>
-  </si>
-  <si>
-    <t>20.52 kN</t>
-  </si>
-  <si>
-    <t>20.23 kN</t>
-  </si>
-  <si>
-    <t>17.73 kN</t>
-  </si>
-  <si>
-    <t>20.98 kN</t>
-  </si>
-  <si>
-    <t>22.80 kN</t>
-  </si>
-  <si>
-    <t>9X07</t>
   </si>
 </sst>
 </file>
@@ -899,18 +734,39 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -935,12 +791,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,21 +798,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,7 +1160,7 @@
   <dimension ref="A2:AC15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,272 +1174,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="20"/>
+      <c r="L3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="12" t="s">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="12" t="s">
+      <c r="S3" s="20"/>
+      <c r="T3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="12" t="s">
+      <c r="U3" s="20"/>
+      <c r="V3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12" t="s">
+      <c r="W3" s="20"/>
+      <c r="X3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="12" t="s">
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="12" t="s">
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="13"/>
+      <c r="AC3" s="20"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="2">
-        <v>9131</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9131</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9228</v>
-      </c>
-      <c r="I5" s="2">
-        <v>9228</v>
-      </c>
-      <c r="J5" s="2">
-        <v>9329</v>
-      </c>
-      <c r="K5" s="2">
-        <v>9329</v>
-      </c>
-      <c r="L5" s="2">
-        <v>9430</v>
-      </c>
-      <c r="M5" s="2">
-        <v>9430</v>
-      </c>
-      <c r="N5" s="2">
-        <v>9523</v>
-      </c>
-      <c r="O5" s="2">
-        <v>9523</v>
-      </c>
-      <c r="P5" s="2">
-        <v>9627</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>9613</v>
-      </c>
-      <c r="R5" s="2">
-        <v>9715</v>
-      </c>
-      <c r="S5" s="2">
-        <v>9715</v>
-      </c>
-      <c r="T5" s="2">
-        <v>9821</v>
-      </c>
-      <c r="U5" s="2">
-        <v>9821</v>
-      </c>
-      <c r="V5" s="2">
-        <v>9908</v>
-      </c>
-      <c r="W5" s="2">
-        <v>9908</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>6409683</v>
@@ -1612,246 +1351,106 @@
       <c r="G6" s="2">
         <v>6409686</v>
       </c>
-      <c r="H6" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="M6" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="N6" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="O6" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="P6" s="2">
-        <v>6409683</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>6409686</v>
-      </c>
-      <c r="R6" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="S6" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="T6" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="U6" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="V6" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="W6" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="X6" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>6409789</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="2">
-        <v>9110</v>
-      </c>
-      <c r="G8" s="2">
-        <v>9104</v>
-      </c>
-      <c r="H8" s="2">
-        <v>9209</v>
-      </c>
-      <c r="I8" s="2">
-        <v>9209</v>
-      </c>
-      <c r="J8" s="2">
-        <v>9306</v>
-      </c>
-      <c r="K8" s="2">
-        <v>9306</v>
-      </c>
-      <c r="L8" s="2">
-        <v>9403</v>
-      </c>
-      <c r="M8" s="2">
-        <v>9403</v>
-      </c>
-      <c r="N8" s="2">
-        <v>9507</v>
-      </c>
-      <c r="O8" s="2">
-        <v>9507</v>
-      </c>
-      <c r="P8" s="2">
-        <v>9619</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>9629</v>
-      </c>
-      <c r="R8" s="2">
-        <v>9718</v>
-      </c>
-      <c r="S8" s="2">
-        <v>9718</v>
-      </c>
-      <c r="T8" s="2">
-        <v>9827</v>
-      </c>
-      <c r="U8" s="2">
-        <v>9827</v>
-      </c>
-      <c r="V8" s="2">
-        <v>9917</v>
-      </c>
-      <c r="W8" s="2">
-        <v>9917</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
         <v>6409683</v>
@@ -1859,511 +1458,245 @@
       <c r="G9" s="2">
         <v>6409686</v>
       </c>
-      <c r="H9" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="J9" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="K9" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="L9" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="M9" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="O9" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="P9" s="2">
-        <v>6409683</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>6409686</v>
-      </c>
-      <c r="R9" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="S9" s="2">
-        <v>6409684</v>
-      </c>
-      <c r="T9" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="U9" s="2">
-        <v>6409682</v>
-      </c>
-      <c r="V9" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="W9" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="X9" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>6409807</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>6409789</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>6409789</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC10" s="26"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25">
-        <v>9204</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="25">
-        <v>9305</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="25">
-        <v>9722</v>
-      </c>
-      <c r="S11" s="26"/>
-      <c r="T11" s="25">
-        <v>9817</v>
-      </c>
-      <c r="U11" s="26"/>
-      <c r="V11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC11" s="26"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="25">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5">
         <v>6409827</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25">
-        <v>6409827</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="25">
-        <v>6409827</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25">
-        <v>6409829</v>
-      </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="25">
-        <v>6409819</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="25">
-        <v>6409829</v>
-      </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="25">
-        <v>6409827</v>
-      </c>
-      <c r="S12" s="26"/>
-      <c r="T12" s="25">
-        <v>6266988</v>
-      </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="25">
-        <v>6409830</v>
-      </c>
-      <c r="W12" s="26"/>
-      <c r="X12" s="25">
-        <v>6409819</v>
-      </c>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="25">
-        <v>6409827</v>
-      </c>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="25">
-        <v>6409830</v>
-      </c>
-      <c r="AC12" s="26"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10">
         <v>7</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC13" s="26"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="6"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="25">
-        <v>9131</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25">
-        <v>9228</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="25">
-        <v>9330</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25">
-        <v>9427</v>
-      </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="25">
-        <v>9531</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="25">
-        <v>9622</v>
-      </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="25">
-        <v>9727</v>
-      </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="25">
-        <v>9829</v>
-      </c>
-      <c r="U14" s="26"/>
-      <c r="V14" s="25">
-        <v>9930</v>
-      </c>
-      <c r="W14" s="26"/>
-      <c r="X14" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC14" s="26"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="6"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="25">
+        <v>19</v>
+      </c>
+      <c r="F15" s="5">
         <v>6409682</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25">
-        <v>6409684</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="25">
-        <v>6409683</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="25">
-        <v>6409686</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="25">
-        <v>6409682</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="25">
-        <v>6409789</v>
-      </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="25">
-        <v>6409682</v>
-      </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="25">
-        <v>6409684</v>
-      </c>
-      <c r="U15" s="26"/>
-      <c r="V15" s="25">
-        <v>6409683</v>
-      </c>
-      <c r="W15" s="26"/>
-      <c r="X15" s="25">
-        <v>6409686</v>
-      </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="25">
-        <v>6409682</v>
-      </c>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="25">
-        <v>6409789</v>
-      </c>
-      <c r="AC15" s="26"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X12:Y12"/>
     <mergeCell ref="A2:AC2"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="C3:E3"/>
@@ -2387,6 +1720,88 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
